--- a/Autres/Calendrier.xlsx
+++ b/Autres/Calendrier.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\Autres\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I7" si="0">SUM(D5:G5)</f>
+        <f t="shared" ref="I5" si="0">SUM(D5:G5)</f>
         <v>0.99652777777777768</v>
       </c>
       <c r="K5" s="3"/>
